--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_3_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_3_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.55000000000055</v>
+        <v>25.04000000000048</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.314491111161004e-07</v>
+        <v>0.0005155467964560456</v>
       </c>
       <c r="I2" t="n">
-        <v>8.314491111161004e-07</v>
+        <v>0.0005155467964560456</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>54.70907633324462</v>
+        <v>40.68046926439931</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[33.7802070979979, 75.63794556849135]</t>
+          <t>[14.500862453316941, 66.86007607548169]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.788921614011898e-06</v>
+        <v>0.00306910020338913</v>
       </c>
       <c r="O2" t="n">
-        <v>3.788921614011898e-06</v>
+        <v>0.00306910020338913</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2138686329185795, 2.094395102393195]</t>
+          <t>[0.4842895582110396, 1.7925003128590395]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.480483735605276e-09</v>
+        <v>0.001045003025312852</v>
       </c>
       <c r="S2" t="n">
-        <v>1.480483735605276e-09</v>
+        <v>0.001045003025312852</v>
       </c>
       <c r="T2" t="n">
-        <v>60.23764572143048</v>
+        <v>61.4179174512302</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.32225291959239, 73.15303852326858]</t>
+          <t>[47.650226803879065, 75.18560809858133]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.552491634195576e-12</v>
+        <v>1.330646703934235e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.552491634195576e-12</v>
+        <v>1.330646703934235e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>18.82362362362403</v>
+        <v>20.50322322322361</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.0333333333337</v>
+        <v>17.8964564564568</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.61391391391436</v>
+        <v>23.10998998999043</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.55000000000055</v>
+        <v>25.04000000000048</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494908132315125e-06</v>
+        <v>0.0002401000911699258</v>
       </c>
       <c r="I3" t="n">
-        <v>6.494908132315125e-06</v>
+        <v>0.0002401000911699258</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>59.65661270264258</v>
+        <v>49.50827873837769</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[32.02024514381981, 87.29298026146536]</t>
+          <t>[20.907565848414137, 78.10899162834124]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.775714938818012e-05</v>
+        <v>0.001104629060933116</v>
       </c>
       <c r="O3" t="n">
-        <v>7.775714938818012e-05</v>
+        <v>0.001104629060933116</v>
       </c>
       <c r="P3" t="n">
-        <v>1.17613178422681</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6603948521059619, 1.6918687163476571]</t>
+          <t>[0.6603948521059619, 1.9434477076261194]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.517073226300127e-05</v>
+        <v>0.0001775047010990072</v>
       </c>
       <c r="S3" t="n">
-        <v>3.517073226300127e-05</v>
+        <v>0.0001775047010990072</v>
       </c>
       <c r="T3" t="n">
-        <v>67.3406086467878</v>
+        <v>57.13425255464279</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.030629143477746, 82.65058815009786]</t>
+          <t>[41.21635401389119, 73.05215109539438]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.006350641181598e-11</v>
+        <v>4.66374427965377e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.006350641181598e-11</v>
+        <v>4.66374427965377e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>20.76736736736782</v>
+        <v>19.85153153153191</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.67017017017057</v>
+        <v>17.29489489489522</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.86456456456506</v>
+        <v>22.4081681681686</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.55000000000055</v>
+        <v>25.04000000000048</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001567987042390251</v>
+        <v>0.0007300076776983744</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001567987042390251</v>
+        <v>0.0007300076776983744</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>43.52501398724434</v>
+        <v>46.8772302197163</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[12.29738284040863, 74.75264513408004]</t>
+          <t>[18.34529652680436, 75.40916391262823]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.007360805350092425</v>
+        <v>0.001847978366893432</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007360805350092425</v>
+        <v>0.001847978366893432</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8365001460008852</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.20755266780473125, 1.4654476241970391]</t>
+          <t>[0.45913165908319353, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01028224055676508</v>
+        <v>0.001416979416367647</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01028224055676508</v>
+        <v>0.001416979416367647</v>
       </c>
       <c r="T4" t="n">
-        <v>66.74347439820998</v>
+        <v>70.49746211848964</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.90275089362825, 82.58419790279171]</t>
+          <t>[54.205698321936296, 86.78922591504298]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.830647159006276e-11</v>
+        <v>3.210876009518415e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>6.830647159006276e-11</v>
+        <v>3.210876009518415e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>22.14844844844893</v>
+        <v>20.55335335335374</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.59089089089132</v>
+        <v>17.8964564564568</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.70600600600654</v>
+        <v>23.21025025025069</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.55000000000055</v>
+        <v>25.04000000000048</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000504887009359023</v>
+        <v>6.147843897297278e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000504887009359023</v>
+        <v>6.147843897297278e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.94453244857204</v>
+        <v>67.45898674403264</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.33590230193606, 82.55316259520802]</t>
+          <t>[37.31502059812459, 97.6029528899407]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002211385320454173</v>
+        <v>4.648024516273885e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002211385320454173</v>
+        <v>4.648024516273885e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5346053564667317</v>
+        <v>0.4339737599553466</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.09434212172942225, 1.1635528346628856]</t>
+          <t>[-0.06918422260157797, 0.9371317425122712]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.09378343830200353</v>
+        <v>0.08919929066938792</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09378343830200353</v>
+        <v>0.08919929066938792</v>
       </c>
       <c r="T5" t="n">
-        <v>61.27271145839939</v>
+        <v>78.56114330806682</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.66398944940474, 77.88143346739405]</t>
+          <t>[61.83133644865161, 95.29095016748202]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.354033634688335e-09</v>
+        <v>2.892575068358383e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.354033634688335e-09</v>
+        <v>2.892575068358383e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>23.37607607607658</v>
+        <v>23.31051051051096</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.81851851851897</v>
+        <v>21.30530530530571</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.93363363363419</v>
+        <v>25.3157157157162</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,73 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.03000000000016</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0005860899461191948</v>
+        <v>0.000223608428781108</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005860899461191948</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>0.000223608428781108</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1026666312020235</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1026666312020235</v>
+      </c>
       <c r="L6" t="n">
-        <v>56.95844286814824</v>
+        <v>49.60268624729384</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[25.79427736542712, 88.12260837086936]</t>
+          <t>[18.37996826341586, 80.82540423117182]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0006191345182888774</v>
+        <v>0.002521882286491639</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006191345182888774</v>
+        <v>0.002521882286491639</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01257894956392303</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.77360539818127, 0.748447499053424]</t>
+          <t>[-1.1446844103170015, 0.13836844520315417]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9735897871705939</v>
+        <v>0.1211825134688984</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9735897871705939</v>
+        <v>0.1211825134688984</v>
       </c>
       <c r="T6" t="n">
-        <v>74.39359045415407</v>
+        <v>61.59551887993514</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[54.71346040252198, 94.07372050578616]</t>
+          <t>[45.448553988617306, 77.74248377125298]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.265822113794002e-09</v>
+        <v>1.000676652651578e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.265822113794002e-09</v>
+        <v>1.000676652651578e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04610610610610522</v>
+        <v>1.761761761761761</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.743313313313333</v>
+        <v>-0.4844844844844851</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.835525525525543</v>
+        <v>4.008008008008007</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1015,73 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.03000000000016</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.585068479721286e-06</v>
+        <v>0.0001097973048674872</v>
       </c>
       <c r="I7" t="n">
-        <v>2.585068479721286e-06</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>0.0001097973048674872</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9613698801638011</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9613698801638011</v>
+      </c>
       <c r="L7" t="n">
-        <v>70.74408109462692</v>
+        <v>43.29311225083914</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[39.92587765431618, 101.56228453493766]</t>
+          <t>[21.795615858231358, 64.79060864344692]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.18614189962485e-05</v>
+        <v>0.0001957937965528789</v>
       </c>
       <c r="O7" t="n">
-        <v>3.18614189962485e-05</v>
+        <v>0.0001957937965528789</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3710790121357306</v>
+        <v>0.1195000208572692</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.132078970421194, 0.8742369946926551]</t>
+          <t>[-0.5220264069028095, 0.7610264486173479]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1444099767516172</v>
+        <v>0.7092920626824832</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1444099767516172</v>
+        <v>0.7092920626824832</v>
       </c>
       <c r="T7" t="n">
-        <v>79.43979804774756</v>
+        <v>60.19844365315244</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[62.13411325544378, 96.74548284005134]</t>
+          <t>[46.80456186714295, 73.59232543916193]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.722533558127907e-12</v>
+        <v>1.069011545951071e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>5.722533558127907e-12</v>
+        <v>1.069011545951071e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>21.66986986987002</v>
+        <v>21.58158158158158</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.82562562562577</v>
+        <v>19.33533533533533</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.51411411411428</v>
+        <v>23.82782782782783</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1105,73 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.03000000000016</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008710970924241668</v>
+        <v>0.0203634592813825</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008710970924241668</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>0.0203634592813825</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7089832252745661</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7089832252745661</v>
+      </c>
       <c r="L8" t="n">
-        <v>46.41071455303269</v>
+        <v>33.13681898397434</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[15.86139046502339, 76.96003864104199]</t>
+          <t>[2.2179658559771696, 64.0556721119715]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.003725178575376908</v>
+        <v>0.03625365235520395</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003725178575376908</v>
+        <v>0.03625365235520395</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4842895582110387</v>
+        <v>0.4968685077749626</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.19497371824080822, 1.1635528346628856]</t>
+          <t>[-0.69184222601577, 1.6855792415656952]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1579232868787437</v>
+        <v>0.4043105236025499</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1579232868787437</v>
+        <v>0.4043105236025499</v>
       </c>
       <c r="T8" t="n">
-        <v>56.2834520747216</v>
+        <v>56.99372984715013</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[39.89081103598372, 72.67609311345949]</t>
+          <t>[40.67336068599528, 73.31409900830498]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.360697576835435e-08</v>
+        <v>9.085047381063305e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.360697576835435e-08</v>
+        <v>9.085047381063305e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>21.25491491491507</v>
+        <v>20.26026026026026</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.76518518518532</v>
+        <v>16.0980980980981</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.74464464464481</v>
+        <v>24.42242242242242</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_3_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_3_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.04000000000048</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005155467964560456</v>
+        <v>2.576179379620847e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005155467964560456</v>
+        <v>2.576179379620847e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.68046926439931</v>
+        <v>65.25340945682285</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[14.500862453316941, 66.86007607548169]</t>
+          <t>[33.86267695304089, 96.64414196060481]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00306910020338913</v>
+        <v>0.0001297933013602037</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00306910020338913</v>
+        <v>0.0001297933013602037</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13839493553504</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.4842895582110396, 1.7925003128590395]</t>
+          <t>[1.2138686329185786, 2.39628989192735]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.001045003025312852</v>
+        <v>1.872812078751451e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001045003025312852</v>
+        <v>1.872812078751451e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>61.4179174512302</v>
+        <v>81.8167991091438</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.650226803879065, 75.18560809858133]</t>
+          <t>[63.246209583634624, 100.38738863465298]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.330646703934235e-11</v>
+        <v>1.913025293731607e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.330646703934235e-11</v>
+        <v>1.913025293731607e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>20.50322322322361</v>
+        <v>18.30246246246287</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.8964564564568</v>
+        <v>15.88612612612648</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.10998998999043</v>
+        <v>20.71879879879927</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.04000000000048</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002401000911699258</v>
+        <v>0.0003088215465726352</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002401000911699258</v>
+        <v>0.0003088215465726352</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.50827873837769</v>
+        <v>52.293553345885</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[20.907565848414137, 78.10899162834124]</t>
+          <t>[23.59857188685544, 80.98853480491456]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001104629060933116</v>
+        <v>0.0006393150223895638</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001104629060933116</v>
+        <v>0.0006393150223895638</v>
       </c>
       <c r="P3" t="n">
-        <v>1.301921279866041</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6603948521059619, 1.9434477076261194]</t>
+          <t>[0.6981317007977319, 2.081816152829272]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0001775047010990072</v>
+        <v>0.0002017725985528074</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001775047010990072</v>
+        <v>0.0002017725985528074</v>
       </c>
       <c r="T3" t="n">
-        <v>57.13425255464279</v>
+        <v>75.20449173720201</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.21635401389119, 73.05215109539438]</t>
+          <t>[57.903339289289875, 92.50564418511414]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.66374427965377e-09</v>
+        <v>2.820765843125628e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>4.66374427965377e-09</v>
+        <v>2.820765843125628e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.85153153153191</v>
+        <v>19.99903903903949</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.29489489489522</v>
+        <v>17.1714114114118</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.4081681681686</v>
+        <v>22.82666666666718</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.04000000000048</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007300076776983744</v>
+        <v>3.9528881492501e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007300076776983744</v>
+        <v>3.9528881492501e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>46.8772302197163</v>
+        <v>59.09253522126291</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[18.34529652680436, 75.40916391262823]</t>
+          <t>[30.9666827092408, 87.21838773328501]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001847978366893432</v>
+        <v>0.000112600871835955</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001847978366893432</v>
+        <v>0.000112600871835955</v>
       </c>
       <c r="P4" t="n">
-        <v>1.125815985971117</v>
+        <v>0.7736053981812709</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 1.7925003128590413]</t>
+          <t>[0.3333421634439633, 1.2138686329185786]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.001416979416367647</v>
+        <v>0.0009459443543684554</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001416979416367647</v>
+        <v>0.0009459443543684554</v>
       </c>
       <c r="T4" t="n">
-        <v>70.49746211848964</v>
+        <v>62.03356713271157</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[54.205698321936296, 86.78922591504298]</t>
+          <t>[47.682361509569816, 76.38477275585332]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.210876009518415e-11</v>
+        <v>3.311151353102559e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>3.210876009518415e-11</v>
+        <v>3.311151353102559e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>20.55335335335374</v>
+        <v>22.5181981981987</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.8964564564568</v>
+        <v>20.71879879879926</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.21025025025069</v>
+        <v>24.31759759759814</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.04000000000048</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.147843897297278e-06</v>
+        <v>0.0001845450198431076</v>
       </c>
       <c r="I5" t="n">
-        <v>6.147843897297278e-06</v>
+        <v>0.0001845450198431076</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>67.45898674403264</v>
+        <v>56.49416732764129</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[37.31502059812459, 97.6029528899407]</t>
+          <t>[23.684506760547954, 89.30382789473464]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.648024516273885e-05</v>
+        <v>0.001165917121927595</v>
       </c>
       <c r="O5" t="n">
-        <v>4.648024516273885e-05</v>
+        <v>0.001165917121927595</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4339737599553466</v>
+        <v>0.5975001042863468</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.06918422260157797, 0.9371317425122712]</t>
+          <t>[0.018868424345884094, 1.1761317842268095]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08919929066938792</v>
+        <v>0.0432718649593371</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08919929066938792</v>
+        <v>0.0432718649593371</v>
       </c>
       <c r="T5" t="n">
-        <v>78.56114330806682</v>
+        <v>76.0665825551547</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[61.83133644865161, 95.29095016748202]</t>
+          <t>[58.95876382137777, 93.17440128893162]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.892575068358383e-12</v>
+        <v>1.465383370202744e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.892575068358383e-12</v>
+        <v>1.465383370202744e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>23.31051051051096</v>
+        <v>23.23795795795848</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.30530530530571</v>
+        <v>20.8730330330335</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.3157157157162</v>
+        <v>25.60288288288346</v>
       </c>
     </row>
     <row r="6">
@@ -925,73 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>23.69000000000026</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000223608428781108</v>
+        <v>0.1740164192968546</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000223608428781108</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1026666312020235</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1026666312020235</v>
-      </c>
+        <v>0.1740164192968546</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>49.60268624729384</v>
+        <v>22.10314405466477</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[18.37996826341586, 80.82540423117182]</t>
+          <t>[-8.104683928244675, 52.31097203757422]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.002521882286491639</v>
+        <v>0.1475172432043919</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002521882286491639</v>
+        <v>0.1475172432043919</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.5031579825569237</v>
+        <v>0.2704474156243464</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.1446844103170015, 0.13836844520315417]</t>
+          <t>[-2.660447832769735, 3.2013426640184277]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1211825134688984</v>
+        <v>0.8533970459536935</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1211825134688984</v>
+        <v>0.8533970459536935</v>
       </c>
       <c r="T6" t="n">
-        <v>61.59551887993514</v>
+        <v>53.95200313649869</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.448553988617306, 77.74248377125298]</t>
+          <t>[37.37597038753875, 70.52803588545862]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.000676652651578e-09</v>
+        <v>4.660843200277043e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.000676652651578e-09</v>
+        <v>4.660843200277043e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>1.761761761761761</v>
+        <v>22.67031031031056</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4844844844844851</v>
+        <v>11.61971971971985</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.008008008008007</v>
+        <v>33.72090090090128</v>
       </c>
     </row>
     <row r="7">
@@ -999,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1015,73 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>23.69000000000026</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001097973048674872</v>
+        <v>1.444985073739691e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001097973048674872</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9613698801638011</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9613698801638011</v>
-      </c>
+        <v>1.444985073739691e-05</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>43.29311225083914</v>
+        <v>67.21767181528148</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[21.795615858231358, 64.79060864344692]</t>
+          <t>[33.098809428263834, 101.33653420229912]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0001957937965528789</v>
+        <v>0.0002576596368553119</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001957937965528789</v>
+        <v>0.0002576596368553119</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1195000208572692</v>
+        <v>0.7736053981812701</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.5220264069028095, 0.7610264486173479]</t>
+          <t>[0.2956053147521924, 1.2516054816103477]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7092920626824832</v>
+        <v>0.002128265771546456</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7092920626824832</v>
+        <v>0.002128265771546456</v>
       </c>
       <c r="T7" t="n">
-        <v>60.19844365315244</v>
+        <v>71.20021013933508</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.80456186714295, 73.59232543916193]</t>
+          <t>[53.375418833480865, 89.0250014451893]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.069011545951071e-11</v>
+        <v>2.962532441586063e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.069011545951071e-11</v>
+        <v>2.962532441586063e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>21.58158158158158</v>
+        <v>20.77321321321345</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.33533533533533</v>
+        <v>18.97097097097118</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.82782782782783</v>
+        <v>22.57545545545571</v>
       </c>
     </row>
     <row r="8">
@@ -1089,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1105,73 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>23.69000000000026</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0203634592813825</v>
+        <v>1.094557659619966e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0203634592813825</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7089832252745661</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.7089832252745661</v>
-      </c>
+        <v>1.094557659619966e-06</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>33.13681898397434</v>
+        <v>65.4396532754169</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[2.2179658559771696, 64.0556721119715]</t>
+          <t>[37.10062744564808, 93.77867910518572]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.03625365235520395</v>
+        <v>2.912548502509438e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03625365235520395</v>
+        <v>2.912548502509438e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4968685077749626</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.69184222601577, 1.6855792415656952]</t>
+          <t>[0.10692107129334616, 1.0377633390236554]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4043105236025499</v>
+        <v>0.01708084746974503</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4043105236025499</v>
+        <v>0.01708084746974503</v>
       </c>
       <c r="T8" t="n">
-        <v>56.99372984715013</v>
+        <v>65.8834857281864</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.67336068599528, 73.31409900830498]</t>
+          <t>[50.69042272654538, 81.07654872982742]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.085047381063305e-09</v>
+        <v>3.020783623242096e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>9.085047381063305e-09</v>
+        <v>3.020783623242096e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>20.26026026026026</v>
+        <v>21.53205205205229</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.0980980980981</v>
+        <v>19.77723723723746</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.42242242242242</v>
+        <v>23.28686686686713</v>
       </c>
     </row>
   </sheetData>
